--- a/jogos_2025-05-01.xlsx
+++ b/jogos_2025-05-01.xlsx
@@ -728,27 +728,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Jordan Jordanian Pro League</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dalian Zhixing</t>
+          <t>Aqaba</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yunnan Yukun</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -769,76 +769,76 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.04</v>
+        <v>4.12</v>
       </c>
       <c r="M2" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="P2" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -851,46 +851,46 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
         <v>-1</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="BD2" s="3" t="n">
-        <v>45778.1875</v>
+        <v>45778.57291666666</v>
       </c>
     </row>
     <row r="3">
@@ -914,12 +914,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spain Primera Division Women</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Levante Las Planas</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Barcelona W</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -955,40 +955,40 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>3.28</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.08</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>1.33</v>
       </c>
       <c r="V3" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -997,34 +997,34 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.25</v>
+        <v>2.01</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.75</v>
+        <v>1.81</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-1</v>
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>1.73</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.08</v>
+        <v>2.4</v>
       </c>
       <c r="BD3" s="3" t="n">
-        <v>45778.29166666666</v>
+        <v>45778.3125</v>
       </c>
     </row>
     <row r="4">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M4" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
@@ -1171,10 +1171,10 @@
         <v>1.33</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BD4" s="3" t="n">
-        <v>45778.3125</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="5">
@@ -1286,27 +1286,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tianjin Teda</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1327,76 +1327,76 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="M5" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="N5" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="O5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V5" t="n">
         <v>9</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="X5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
@@ -1409,61 +1409,61 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>-1</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BC5" t="n">
         <v>1.8</v>
       </c>
-      <c r="AY5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="BD5" s="3" t="n">
-        <v>45778.3125</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1472,27 +1472,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Jordan Jordanian Pro League</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Ma'an</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Al Salt</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1513,76 +1513,76 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.96</v>
+        <v>2.99</v>
       </c>
       <c r="M6" t="n">
-        <v>3.39</v>
+        <v>2.95</v>
       </c>
       <c r="N6" t="n">
-        <v>3.39</v>
+        <v>2.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="P6" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -1595,46 +1595,46 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>-1</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="BD6" s="3" t="n">
-        <v>45778.33333333334</v>
+        <v>45778.45833333334</v>
       </c>
     </row>
     <row r="7">
@@ -1658,27 +1658,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zhejiang FC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1699,76 +1699,76 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="M7" t="n">
-        <v>3.9</v>
+        <v>3.59</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.83</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1781,46 +1781,46 @@
         </is>
       </c>
       <c r="AL7" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
         <v>-1</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="BC7" t="n">
         <v>2.75</v>
       </c>
       <c r="BD7" s="3" t="n">
-        <v>45778.33333333334</v>
+        <v>45778.54166666666</v>
       </c>
     </row>
     <row r="8">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Morocco Botola Pro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>RSB Berkane</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Difaâ El Jadida</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1885,76 +1885,76 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="M8" t="n">
-        <v>3.41</v>
+        <v>3.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V8" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6.5</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="X8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.95</v>
+        <v>4.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -1967,61 +1967,61 @@
         </is>
       </c>
       <c r="AL8" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="AO8" t="n">
         <v>-1</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
         <v>1.5</v>
       </c>
-      <c r="AY8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="BC8" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="BD8" s="3" t="n">
-        <v>45778.35416666666</v>
+        <v>45778.66666666666</v>
       </c>
     </row>
     <row r="9">
@@ -2030,27 +2030,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Indonesia Liga 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shanghai SIPG</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -2071,76 +2071,76 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="n">
-        <v>3.76</v>
+        <v>4.5</v>
       </c>
       <c r="N9" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.75</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC9" t="n">
         <v>2.1</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2.73</v>
-      </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -2153,46 +2153,46 @@
         </is>
       </c>
       <c r="AL9" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>-1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="BD9" s="3" t="n">
-        <v>45778.35763888889</v>
+        <v>45778.375</v>
       </c>
     </row>
     <row r="10">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shandong Luneng</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Qingdao Jonoon</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2257,76 +2257,76 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AA10" t="n">
         <v>5.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -2339,46 +2339,46 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>-1</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.35</v>
+        <v>5.05</v>
       </c>
       <c r="AV10" t="n">
-        <v>3.07</v>
+        <v>3.4</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BD10" s="3" t="n">
-        <v>45778.35763888889</v>
+        <v>45778.54166666666</v>
       </c>
     </row>
     <row r="11">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Indonesia Liga 1</t>
+          <t>Spain Primera Division Women</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Levante Las Planas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Barcelona W</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2443,40 +2443,40 @@
         </is>
       </c>
       <c r="L11" t="n">
+        <v>34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>17</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.7</v>
       </c>
-      <c r="M11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2485,34 +2485,34 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.4</v>
+        <v>1.61</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO11" t="n">
         <v>-1</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.44</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.75</v>
+        <v>1.08</v>
       </c>
       <c r="BD11" s="3" t="n">
-        <v>45778.375</v>
+        <v>45778.29166666666</v>
       </c>
     </row>
     <row r="12">
@@ -2588,27 +2588,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Dalian Zhixing</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2629,22 +2629,22 @@
         </is>
       </c>
       <c r="L12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.67</v>
       </c>
-      <c r="M12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.4</v>
@@ -2653,10 +2653,10 @@
         <v>2.75</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V12" t="n">
         <v>8</v>
@@ -2665,40 +2665,40 @@
         <v>1.08</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG12" t="n">
         <v>2</v>
       </c>
-      <c r="AC12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -2711,46 +2711,46 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AO12" t="n">
         <v>-1</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="BD12" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.1875</v>
       </c>
     </row>
     <row r="13">
@@ -2774,27 +2774,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Shanghai SIPG</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2815,76 +2815,76 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.18</v>
+        <v>2.13</v>
       </c>
       <c r="M13" t="n">
-        <v>3.32</v>
+        <v>3.76</v>
       </c>
       <c r="N13" t="n">
-        <v>2.39</v>
+        <v>2.75</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -2897,46 +2897,46 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AO13" t="n">
         <v>-1</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -2945,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="BD13" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.35763888889</v>
       </c>
     </row>
     <row r="14">
@@ -2960,27 +2960,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Tianjin Teda</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -3001,76 +3001,76 @@
         </is>
       </c>
       <c r="L14" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2.05</v>
       </c>
-      <c r="M14" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V14" t="n">
-        <v>11</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -3083,46 +3083,46 @@
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AO14" t="n">
         <v>-1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="BD14" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.3125</v>
       </c>
     </row>
     <row r="15">
@@ -3146,27 +3146,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -3187,76 +3187,76 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -3269,46 +3269,46 @@
         </is>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO15" t="n">
         <v>-1</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>1.44</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BD15" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.33333333334</v>
       </c>
     </row>
     <row r="16">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -3373,40 +3373,40 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.13</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>3.29</v>
+        <v>3.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.43</v>
+        <v>1.53</v>
       </c>
       <c r="O16" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.53125</v>
       </c>
     </row>
     <row r="17">
@@ -3518,27 +3518,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>USA USL Championship</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Lexington</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -3559,76 +3559,76 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.57</v>
+        <v>5.34</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.57</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.33</v>
-      </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -3641,46 +3641,46 @@
         </is>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>-1</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AZ17" t="n">
         <v>0</v>
@@ -3689,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="BD17" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.875</v>
       </c>
     </row>
     <row r="18">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Croatia Druga HNL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Dubrava Zagreb</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -3745,76 +3745,76 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="M18" t="n">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -3827,13 +3827,13 @@
         </is>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AO18" t="n">
         <v>-1</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="BD18" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.5</v>
       </c>
     </row>
     <row r="19">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3931,76 +3931,76 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.31</v>
+        <v>1.67</v>
       </c>
       <c r="M19" t="n">
-        <v>3.08</v>
+        <v>3.85</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="T19" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="X19" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AD19" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -4013,13 +4013,13 @@
         </is>
       </c>
       <c r="AL19" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
         <v>-1</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="BC19" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="BD19" s="3" t="n">
-        <v>45778.45833333334</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="20">
@@ -4076,12 +4076,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -4117,76 +4117,76 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.85</v>
       </c>
       <c r="M20" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="N20" t="n">
-        <v>8.4</v>
+        <v>3.78</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="V20" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="X20" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.74</v>
+        <v>1.85</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH20" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -4199,46 +4199,46 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>-1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
@@ -4247,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="BC20" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="BD20" s="3" t="n">
-        <v>45778.45833333334</v>
+        <v>45778.54166666666</v>
       </c>
     </row>
     <row r="21">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jordan Jordanian Pro League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ma'an</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Salt</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -4303,40 +4303,40 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="M21" t="n">
-        <v>2.95</v>
+        <v>3.92</v>
       </c>
       <c r="N21" t="n">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="O21" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -4433,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BD21" s="3" t="n">
-        <v>45778.45833333334</v>
+        <v>45778.625</v>
       </c>
     </row>
     <row r="22">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Croatia Druga HNL</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dubrava Zagreb</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -4489,76 +4489,76 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.8</v>
+        <v>3.28</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="P22" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
         <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="U22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="X22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>3.68</v>
+        <v>4.75</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -4571,46 +4571,46 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN22" t="n">
         <v>1.16</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1.84</v>
       </c>
       <c r="AO22" t="n">
         <v>-1</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ22" t="n">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="BC22" t="n">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="BD22" s="3" t="n">
-        <v>45778.5</v>
+        <v>45778.58333333334</v>
       </c>
     </row>
     <row r="23">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -4675,95 +4675,95 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.91</v>
+        <v>2.31</v>
       </c>
       <c r="M23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="N23" t="n">
         <v>3.2</v>
       </c>
-      <c r="N23" t="n">
-        <v>2.64</v>
-      </c>
       <c r="O23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB23" t="n">
         <v>2.2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="AC23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM23" t="n">
         <v>1.33</v>
       </c>
-      <c r="V23" t="n">
-        <v>9</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AO23" t="n">
         <v>-1</v>
@@ -4805,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="BD23" s="3" t="n">
-        <v>45778.51041666666</v>
+        <v>45778.45833333334</v>
       </c>
     </row>
     <row r="24">
@@ -4820,27 +4820,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Faroe Islands Faroe Islands Premier League</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chadormalu SC</t>
+          <t>KÍ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -4861,76 +4861,76 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="M24" t="n">
-        <v>2.55</v>
+        <v>14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.35</v>
+        <v>61</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.3</v>
+        <v>1.35</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.28</v>
+        <v>2.94</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -4943,13 +4943,13 @@
         </is>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AO24" t="n">
         <v>-1</v>
@@ -4991,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BD24" s="3" t="n">
-        <v>45778.53125</v>
+        <v>45778.5625</v>
       </c>
     </row>
     <row r="25">
@@ -5006,27 +5006,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Qingdao Jonoon</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -5047,76 +5047,76 @@
         </is>
       </c>
       <c r="L25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA25" t="n">
         <v>5.5</v>
       </c>
-      <c r="M25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
       <c r="AB25" t="n">
-        <v>2.55</v>
+        <v>1.37</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.45</v>
+        <v>2.85</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -5129,46 +5129,46 @@
         </is>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AO25" t="n">
         <v>-1</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AZ25" t="n">
         <v>0</v>
@@ -5177,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BD25" s="3" t="n">
-        <v>45778.53125</v>
+        <v>45778.35763888889</v>
       </c>
     </row>
     <row r="26">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Chadormalu SC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Havadar</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -5233,13 +5233,13 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M26" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N26" t="n">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -5378,27 +5378,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kheybar Khorramabad</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -5419,76 +5419,76 @@
         </is>
       </c>
       <c r="L27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.5</v>
       </c>
-      <c r="M27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
         <v>2.63</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4.5</v>
-      </c>
       <c r="U27" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="V27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.45</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF27" t="n">
         <v>1.7</v>
       </c>
-      <c r="AA27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AG27" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="AH27" t="n">
-        <v>14.5</v>
+        <v>5.15</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
@@ -5501,46 +5501,46 @@
         </is>
       </c>
       <c r="AL27" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="AO27" t="n">
         <v>-1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AU27" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AY27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AZ27" t="n">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="BC27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="BD27" s="3" t="n">
-        <v>45778.54166666666</v>
+        <v>45778.33333333334</v>
       </c>
     </row>
     <row r="28">
@@ -5569,22 +5569,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Kheybar Khorramabad</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -5605,76 +5605,76 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.24</v>
+        <v>2.5</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>15.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>5.45</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.47</v>
+        <v>3.21</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.57</v>
+        <v>1.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.8</v>
+        <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
@@ -5687,46 +5687,46 @@
         </is>
       </c>
       <c r="AL28" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.75</v>
+        <v>1.46</v>
       </c>
       <c r="AO28" t="n">
         <v>-1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0</v>
@@ -5735,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="BD28" s="3" t="n">
         <v>45778.54166666666</v>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5765,12 +5765,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -5791,76 +5791,76 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.89</v>
+        <v>2.68</v>
       </c>
       <c r="M29" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="N29" t="n">
-        <v>3.83</v>
+        <v>2.48</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V29" t="n">
         <v>6.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
@@ -5873,46 +5873,46 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AO29" t="n">
         <v>-1</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU29" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AZ29" t="n">
         <v>0</v>
@@ -5921,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="BC29" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="BD29" s="3" t="n">
-        <v>45778.54166666666</v>
+        <v>45778.35416666666</v>
       </c>
     </row>
     <row r="30">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -5977,40 +5977,40 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.85</v>
+        <v>3.18</v>
       </c>
       <c r="M30" t="n">
-        <v>3.8</v>
+        <v>3.32</v>
       </c>
       <c r="N30" t="n">
-        <v>3.78</v>
+        <v>2.39</v>
       </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T30" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V30" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -6025,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -6037,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -6107,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="BC30" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="BD30" s="3" t="n">
-        <v>45778.54166666666</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="31">
@@ -6122,27 +6122,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Faroe Islands Faroe Islands Premier League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KÍ</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6163,76 +6163,76 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.03</v>
+        <v>2.65</v>
       </c>
       <c r="M31" t="n">
-        <v>14</v>
+        <v>3.19</v>
       </c>
       <c r="N31" t="n">
-        <v>61</v>
+        <v>2.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="V31" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="W31" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="X31" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.35</v>
+        <v>1.93</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.94</v>
+        <v>1.88</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
@@ -6245,13 +6245,13 @@
         </is>
       </c>
       <c r="AL31" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
         <v>-1</v>
@@ -6293,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
       <c r="BC31" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="BD31" s="3" t="n">
-        <v>45778.5625</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="32">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6323,12 +6323,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hebar 1918</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Levski Krumovgrad</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6349,76 +6349,76 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.73</v>
+        <v>2.05</v>
       </c>
       <c r="M32" t="n">
-        <v>2.97</v>
+        <v>3.27</v>
       </c>
       <c r="N32" t="n">
-        <v>2.73</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
         <v>2.25</v>
       </c>
-      <c r="P32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AC32" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AD32" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
@@ -6431,46 +6431,46 @@
         </is>
       </c>
       <c r="AL32" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
         <v>-1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
         <v>0</v>
@@ -6479,13 +6479,13 @@
         <v>0</v>
       </c>
       <c r="BB32" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="BD32" s="3" t="n">
-        <v>45778.5625</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="33">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UAE Arabian Gulf League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -6535,40 +6535,40 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="M33" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="W33" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -6583,10 +6583,10 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -6595,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -6665,13 +6665,13 @@
         <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="BC33" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="BD33" s="3" t="n">
-        <v>45778.57291666666</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="34">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jordan Jordanian Pro League</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6695,12 +6695,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aqaba</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>Havadar</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -6721,22 +6721,22 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.12</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
-        <v>3.34</v>
+        <v>2.4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.8</v>
+        <v>2.95</v>
       </c>
       <c r="O34" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -6851,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="3" t="n">
-        <v>45778.57291666666</v>
+        <v>45778.53125</v>
       </c>
     </row>
     <row r="35">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6881,12 +6881,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -6907,76 +6907,76 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.28</v>
+        <v>2.91</v>
       </c>
       <c r="M35" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="N35" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="O35" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P35" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
         <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.49</v>
+        <v>2.63</v>
       </c>
       <c r="T35" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="X35" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD35" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
@@ -6989,46 +6989,46 @@
         </is>
       </c>
       <c r="AL35" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
         <v>-1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BC35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="BD35" s="3" t="n">
-        <v>45778.58333333334</v>
+        <v>45778.51041666666</v>
       </c>
     </row>
     <row r="36">
@@ -7052,12 +7052,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -7093,64 +7093,64 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
-        <v>4.33</v>
+        <v>5.8</v>
       </c>
       <c r="N36" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T36" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U36" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="W36" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AC36" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF36" t="n">
         <v>1.8</v>
@@ -7159,10 +7159,10 @@
         <v>1.95</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
@@ -7175,46 +7175,46 @@
         </is>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AO36" t="n">
         <v>-1</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AU36" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AV36" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AW36" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AX36" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY36" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ36" t="n">
         <v>0</v>
@@ -7223,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="BC36" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="BD36" s="3" t="n">
-        <v>45778.60416666666</v>
+        <v>45778.45833333334</v>
       </c>
     </row>
     <row r="37">
@@ -7238,12 +7238,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7253,12 +7253,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -7279,70 +7279,70 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.04</v>
+        <v>1.59</v>
       </c>
       <c r="M37" t="n">
-        <v>3.92</v>
+        <v>4.33</v>
       </c>
       <c r="N37" t="n">
-        <v>2.07</v>
+        <v>5.7</v>
       </c>
       <c r="O37" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
         <v>1.67</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AC37" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -7409,13 +7409,13 @@
         <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="BC37" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="BD37" s="3" t="n">
-        <v>45778.625</v>
+        <v>45778.60416666666</v>
       </c>
     </row>
     <row r="38">
@@ -7424,12 +7424,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Hebar 1918</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Levski Krumovgrad</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -7465,77 +7465,77 @@
         </is>
       </c>
       <c r="L38" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O38" t="n">
         <v>2.25</v>
       </c>
-      <c r="M38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.67</v>
-      </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S38" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.63</v>
+        <v>3.22</v>
       </c>
       <c r="U38" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="V38" t="n">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="X38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AI38" t="n">
         <v>1.05</v>
       </c>
-      <c r="Y38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AJ38" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7547,46 +7547,46 @@
         </is>
       </c>
       <c r="AL38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM38" t="n">
         <v>1.32</v>
       </c>
-      <c r="AM38" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AN38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AO38" t="n">
         <v>-1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.26</v>
+        <v>1.72</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.47</v>
+        <v>2.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>2.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="AU38" t="n">
-        <v>5.25</v>
+        <v>2.67</v>
       </c>
       <c r="AV38" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="AW38" t="n">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="AX38" t="n">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="AY38" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AZ38" t="n">
         <v>0</v>
@@ -7595,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="BC38" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="BD38" s="3" t="n">
-        <v>45778.64583333334</v>
+        <v>45778.5625</v>
       </c>
     </row>
     <row r="39">
@@ -7610,12 +7610,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Morocco Botola Pro</t>
+          <t>UAE Arabian Gulf League</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7625,12 +7625,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RSB Berkane</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Difaâ El Jadida</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -7651,76 +7651,76 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="N39" t="n">
-        <v>4.4</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.5</v>
       </c>
-      <c r="P39" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.23</v>
-      </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="X39" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AD39" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AH39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
@@ -7733,13 +7733,13 @@
         </is>
       </c>
       <c r="AL39" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
         <v>-1</v>
@@ -7781,13 +7781,13 @@
         <v>0</v>
       </c>
       <c r="BB39" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="BC39" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="BD39" s="3" t="n">
-        <v>45778.66666666666</v>
+        <v>45778.57291666666</v>
       </c>
     </row>
     <row r="40">
@@ -7796,27 +7796,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>USA USL Championship</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lexington</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -7837,76 +7837,76 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="M40" t="n">
-        <v>5.34</v>
+        <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z40" t="n">
         <v>1.25</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V40" t="n">
-        <v>5</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AA40" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="AE40" t="n">
         <v>1.38</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="AH40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
@@ -7919,46 +7919,46 @@
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AN40" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="AO40" t="n">
         <v>-1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.23</v>
+        <v>1.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="AU40" t="n">
-        <v>3.42</v>
+        <v>5.25</v>
       </c>
       <c r="AV40" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="AW40" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AY40" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AZ40" t="n">
         <v>0</v>
@@ -7967,13 +7967,13 @@
         <v>0</v>
       </c>
       <c r="BB40" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="BC40" t="n">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="BD40" s="3" t="n">
-        <v>45778.875</v>
+        <v>45778.64583333334</v>
       </c>
     </row>
   </sheetData>

--- a/jogos_2025-05-01.xlsx
+++ b/jogos_2025-05-01.xlsx
@@ -728,27 +728,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jordan Jordanian Pro League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aqaba</t>
+          <t>Dalian Zhixing</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -769,76 +769,76 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4.12</v>
+        <v>2.04</v>
       </c>
       <c r="M2" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.75</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -851,46 +851,46 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AO2" t="n">
         <v>-1</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="BD2" s="3" t="n">
-        <v>45778.57291666666</v>
+        <v>45778.1875</v>
       </c>
     </row>
     <row r="3">
@@ -914,12 +914,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Spain Primera Division Women</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Levante Las Planas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Barcelona W</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -955,76 +955,76 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>34</v>
       </c>
       <c r="M3" t="n">
-        <v>3.28</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>1.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA3" t="n">
         <v>10</v>
       </c>
-      <c r="W3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" t="n">
-        <v>2.01</v>
+        <v>1.25</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.81</v>
+        <v>3.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO3" t="n">
         <v>-1</v>
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.73</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.4</v>
+        <v>1.08</v>
       </c>
       <c r="BD3" s="3" t="n">
-        <v>45778.3125</v>
+        <v>45778.29166666666</v>
       </c>
     </row>
     <row r="4">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="M4" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
@@ -1171,10 +1171,10 @@
         <v>1.33</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BD4" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.3125</v>
       </c>
     </row>
     <row r="5">
@@ -1286,27 +1286,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Tianjin Teda</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1327,76 +1327,76 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="M5" t="n">
-        <v>3.29</v>
+        <v>3.49</v>
       </c>
       <c r="N5" t="n">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="O5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE5" t="n">
         <v>1.36</v>
       </c>
-      <c r="V5" t="n">
-        <v>9</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
@@ -1409,46 +1409,46 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AO5" t="n">
         <v>-1</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BD5" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.3125</v>
       </c>
     </row>
     <row r="6">
@@ -1472,27 +1472,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jordan Jordanian Pro League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ma'an</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Salt</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1513,76 +1513,76 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.99</v>
+        <v>1.96</v>
       </c>
       <c r="M6" t="n">
-        <v>2.95</v>
+        <v>3.39</v>
       </c>
       <c r="N6" t="n">
-        <v>2.35</v>
+        <v>3.39</v>
       </c>
       <c r="O6" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -1595,46 +1595,46 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AO6" t="n">
         <v>-1</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="BD6" s="3" t="n">
-        <v>45778.45833333334</v>
+        <v>45778.33333333334</v>
       </c>
     </row>
     <row r="7">
@@ -1658,27 +1658,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1699,76 +1699,76 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="M7" t="n">
-        <v>3.59</v>
+        <v>3.9</v>
       </c>
       <c r="N7" t="n">
-        <v>3.83</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
         <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1781,46 +1781,46 @@
         </is>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO7" t="n">
         <v>-1</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="BC7" t="n">
         <v>2.75</v>
       </c>
       <c r="BD7" s="3" t="n">
-        <v>45778.54166666666</v>
+        <v>45778.33333333334</v>
       </c>
     </row>
     <row r="8">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Morocco Botola Pro</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RSB Berkane</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Difaâ El Jadida</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1885,76 +1885,76 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="M8" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.65</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="X8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.8</v>
+        <v>2.95</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -1967,46 +1967,46 @@
         </is>
       </c>
       <c r="AL8" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="AO8" t="n">
         <v>-1</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="BD8" s="3" t="n">
-        <v>45778.66666666666</v>
+        <v>45778.35416666666</v>
       </c>
     </row>
     <row r="9">
@@ -2030,27 +2030,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indonesia Liga 1</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Shanghai SIPG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -2071,76 +2071,76 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.7</v>
+        <v>2.13</v>
       </c>
       <c r="M9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
         <v>4.5</v>
       </c>
-      <c r="N9" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="W9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG9" t="n">
         <v>2.75</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -2153,46 +2153,46 @@
         </is>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AO9" t="n">
         <v>-1</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="BD9" s="3" t="n">
-        <v>45778.375</v>
+        <v>45778.35763888889</v>
       </c>
     </row>
     <row r="10">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Qingdao Jonoon</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2257,76 +2257,76 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AA10" t="n">
         <v>5.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -2339,46 +2339,46 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO10" t="n">
         <v>-1</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.05</v>
+        <v>4.35</v>
       </c>
       <c r="AV10" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BC10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BD10" s="3" t="n">
-        <v>45778.54166666666</v>
+        <v>45778.35763888889</v>
       </c>
     </row>
     <row r="11">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spain Primera Division Women</t>
+          <t>Indonesia Liga 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Levante Las Planas</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barcelona W</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2443,40 +2443,40 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>34</v>
+        <v>1.7</v>
       </c>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.02</v>
+        <v>3.83</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.08</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2485,34 +2485,34 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.22</v>
+        <v>1.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>-1</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>1.44</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.08</v>
+        <v>2.75</v>
       </c>
       <c r="BD11" s="3" t="n">
-        <v>45778.29166666666</v>
+        <v>45778.375</v>
       </c>
     </row>
     <row r="12">
@@ -2588,27 +2588,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dalian Zhixing</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yunnan Yukun</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2629,22 +2629,22 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="M12" t="n">
-        <v>3.41</v>
+        <v>3.85</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
         <v>1.4</v>
@@ -2653,10 +2653,10 @@
         <v>2.75</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V12" t="n">
         <v>8</v>
@@ -2665,40 +2665,40 @@
         <v>1.08</v>
       </c>
       <c r="X12" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="n">
         <v>1.75</v>
       </c>
-      <c r="AG12" t="n">
-        <v>2</v>
-      </c>
       <c r="AH12" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -2711,46 +2711,46 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
         <v>-1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BC12" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="BD12" s="3" t="n">
-        <v>45778.1875</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="13">
@@ -2774,27 +2774,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Shanghai SIPG</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2815,76 +2815,76 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.13</v>
+        <v>3.18</v>
       </c>
       <c r="M13" t="n">
-        <v>3.76</v>
+        <v>3.32</v>
       </c>
       <c r="N13" t="n">
-        <v>2.75</v>
+        <v>2.39</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>2.1</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AC13" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -2897,46 +2897,46 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>-1</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -2945,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="BC13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="BD13" s="3" t="n">
-        <v>45778.35763888889</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="14">
@@ -2960,27 +2960,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tianjin Teda</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -3001,76 +3001,76 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
-        <v>3.49</v>
+        <v>3.27</v>
       </c>
       <c r="N14" t="n">
-        <v>2.23</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V14" t="n">
+        <v>11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>2.25</v>
       </c>
-      <c r="P14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AC14" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AG14" t="n">
         <v>1.7</v>
       </c>
-      <c r="AG14" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AH14" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -3083,46 +3083,46 @@
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
         <v>-1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="BD14" s="3" t="n">
-        <v>45778.3125</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="15">
@@ -3146,27 +3146,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zhejiang FC</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -3187,76 +3187,76 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.75</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="W15" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="X15" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.53</v>
+        <v>1.92</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AH15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -3269,46 +3269,46 @@
         </is>
       </c>
       <c r="AL15" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>-1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>1.44</v>
       </c>
       <c r="BC15" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="BD15" s="3" t="n">
-        <v>45778.33333333334</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="16">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -3373,40 +3373,40 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>3.13</v>
       </c>
       <c r="M16" t="n">
-        <v>3.5</v>
+        <v>3.29</v>
       </c>
       <c r="N16" t="n">
-        <v>1.53</v>
+        <v>2.43</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD16" s="3" t="n">
-        <v>45778.53125</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="17">
@@ -3518,27 +3518,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>USA USL Championship</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lexington</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -3559,76 +3559,76 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="M17" t="n">
-        <v>5.34</v>
+        <v>3.57</v>
       </c>
       <c r="N17" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="T17" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="V17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="X17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -3641,46 +3641,46 @@
         </is>
       </c>
       <c r="AL17" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
         <v>-1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0</v>
@@ -3689,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="BC17" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="BD17" s="3" t="n">
-        <v>45778.875</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="18">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Croatia Druga HNL</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dubrava Zagreb</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -3745,76 +3745,76 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.19</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X18" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.68</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -3827,13 +3827,13 @@
         </is>
       </c>
       <c r="AL18" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
         <v>-1</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="BD18" s="3" t="n">
-        <v>45778.5</v>
+        <v>45778.41666666666</v>
       </c>
     </row>
     <row r="19">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3931,76 +3931,76 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.67</v>
+        <v>2.31</v>
       </c>
       <c r="M19" t="n">
-        <v>3.85</v>
+        <v>3.08</v>
       </c>
       <c r="N19" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.4</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V19" t="n">
-        <v>8</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -4013,13 +4013,13 @@
         </is>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AO19" t="n">
         <v>-1</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="BD19" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.45833333334</v>
       </c>
     </row>
     <row r="20">
@@ -4076,12 +4076,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Akhdoud</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -4117,76 +4117,76 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.85</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="N20" t="n">
-        <v>3.78</v>
+        <v>8.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.85</v>
+        <v>2.74</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -4199,46 +4199,46 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" t="n">
         <v>-1</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
@@ -4247,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="BC20" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="BD20" s="3" t="n">
-        <v>45778.54166666666</v>
+        <v>45778.45833333334</v>
       </c>
     </row>
     <row r="21">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Jordan Jordanian Pro League</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Ma'an</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Salt</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -4303,40 +4303,40 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="M21" t="n">
-        <v>3.92</v>
+        <v>2.95</v>
       </c>
       <c r="N21" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="O21" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -4433,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BD21" s="3" t="n">
-        <v>45778.625</v>
+        <v>45778.45833333334</v>
       </c>
     </row>
     <row r="22">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Croatia Druga HNL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Dubrava Zagreb</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -4489,76 +4489,76 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.28</v>
+        <v>1.8</v>
       </c>
       <c r="M22" t="n">
-        <v>2.91</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2.38</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="R22" t="n">
         <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.49</v>
+        <v>2.63</v>
       </c>
       <c r="T22" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="X22" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.5</v>
+        <v>2.83</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AD22" t="n">
-        <v>4.75</v>
+        <v>3.68</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -4571,46 +4571,46 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>1.57</v>
+        <v>1.16</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.16</v>
+        <v>1.84</v>
       </c>
       <c r="AO22" t="n">
         <v>-1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="BD22" s="3" t="n">
-        <v>45778.58333333334</v>
+        <v>45778.5</v>
       </c>
     </row>
     <row r="23">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -4675,76 +4675,76 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.31</v>
+        <v>2.91</v>
       </c>
       <c r="M23" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="R23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="T23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="X23" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AD23" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -4757,13 +4757,13 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
         <v>-1</v>
@@ -4805,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="BC23" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="BD23" s="3" t="n">
-        <v>45778.45833333334</v>
+        <v>45778.51041666666</v>
       </c>
     </row>
     <row r="24">
@@ -4820,27 +4820,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Faroe Islands Faroe Islands Premier League</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KÍ</t>
+          <t>Chadormalu SC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -4861,76 +4861,76 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="M24" t="n">
-        <v>14</v>
+        <v>2.55</v>
       </c>
       <c r="N24" t="n">
-        <v>61</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.35</v>
+        <v>3.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.94</v>
+        <v>1.28</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -4943,13 +4943,13 @@
         </is>
       </c>
       <c r="AL24" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>-1</v>
@@ -4991,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="3" t="n">
-        <v>45778.5625</v>
+        <v>45778.53125</v>
       </c>
     </row>
     <row r="25">
@@ -5006,27 +5006,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shandong Luneng</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Qingdao Jonoon</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -5047,76 +5047,76 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.16</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>1.53</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.37</v>
+        <v>2.55</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.85</v>
+        <v>1.45</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -5129,46 +5129,46 @@
         </is>
       </c>
       <c r="AL25" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>-1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AZ25" t="n">
         <v>0</v>
@@ -5177,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BC25" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="3" t="n">
-        <v>45778.35763888889</v>
+        <v>45778.53125</v>
       </c>
     </row>
     <row r="26">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chadormalu SC</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Havadar</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -5233,13 +5233,13 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -5378,27 +5378,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Kheybar Khorramabad</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -5419,76 +5419,76 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="M27" t="n">
-        <v>3.39</v>
+        <v>2.4</v>
       </c>
       <c r="N27" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="V27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.5</v>
+        <v>5.45</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.75</v>
+        <v>3.21</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.15</v>
+        <v>14.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
@@ -5501,46 +5501,46 @@
         </is>
       </c>
       <c r="AL27" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="AO27" t="n">
         <v>-1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AZ27" t="n">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="BC27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="BD27" s="3" t="n">
-        <v>45778.33333333334</v>
+        <v>45778.54166666666</v>
       </c>
     </row>
     <row r="28">
@@ -5569,22 +5569,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kheybar Khorramabad</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -5605,76 +5605,76 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.5</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>15.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X28" t="n">
         <v>1.01</v>
       </c>
-      <c r="X28" t="n">
-        <v>1.08</v>
-      </c>
       <c r="Y28" t="n">
-        <v>5.45</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AA28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG28" t="n">
         <v>1.95</v>
       </c>
-      <c r="AB28" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
       <c r="AI28" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
@@ -5687,46 +5687,46 @@
         </is>
       </c>
       <c r="AL28" t="n">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.46</v>
+        <v>3.75</v>
       </c>
       <c r="AO28" t="n">
         <v>-1</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AU28" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AV28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AY28" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AZ28" t="n">
         <v>0</v>
@@ -5735,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="BB28" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="BC28" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="BD28" s="3" t="n">
         <v>45778.54166666666</v>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5765,12 +5765,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -5791,76 +5791,76 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="M29" t="n">
-        <v>3.41</v>
+        <v>3.59</v>
       </c>
       <c r="N29" t="n">
-        <v>2.48</v>
+        <v>3.83</v>
       </c>
       <c r="O29" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V29" t="n">
         <v>6.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X29" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AH29" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
@@ -5873,46 +5873,46 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
         <v>-1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AX29" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AY29" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AZ29" t="n">
         <v>0</v>
@@ -5921,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="BB29" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="BC29" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="BD29" s="3" t="n">
-        <v>45778.35416666666</v>
+        <v>45778.54166666666</v>
       </c>
     </row>
     <row r="30">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Al Akhdoud</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -5977,40 +5977,40 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.18</v>
+        <v>1.85</v>
       </c>
       <c r="M30" t="n">
-        <v>3.32</v>
+        <v>3.8</v>
       </c>
       <c r="N30" t="n">
-        <v>2.39</v>
+        <v>3.78</v>
       </c>
       <c r="O30" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -6025,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -6037,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -6107,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="BB30" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="BC30" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="BD30" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.54166666666</v>
       </c>
     </row>
     <row r="31">
@@ -6122,27 +6122,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Faroe Islands Faroe Islands Premier League</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>KÍ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6163,76 +6163,76 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.65</v>
+        <v>1.03</v>
       </c>
       <c r="M31" t="n">
-        <v>3.19</v>
+        <v>14</v>
       </c>
       <c r="N31" t="n">
-        <v>2.9</v>
+        <v>61</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.07</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="T31" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="U31" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="W31" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.88</v>
+        <v>2.94</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
@@ -6245,13 +6245,13 @@
         </is>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AO31" t="n">
         <v>-1</v>
@@ -6293,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.83</v>
+        <v>1.07</v>
       </c>
       <c r="BC31" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="BD31" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.5625</v>
       </c>
     </row>
     <row r="32">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6323,12 +6323,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Hebar 1918</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Levski Krumovgrad</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6349,77 +6349,77 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.05</v>
+        <v>2.73</v>
       </c>
       <c r="M32" t="n">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="N32" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD32" t="n">
         <v>4.2</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V32" t="n">
-        <v>11</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="AE32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AI32" t="n">
         <v>1.05</v>
       </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6431,46 +6431,46 @@
         </is>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AO32" t="n">
         <v>-1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU32" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AW32" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ32" t="n">
         <v>0</v>
@@ -6479,13 +6479,13 @@
         <v>0</v>
       </c>
       <c r="BB32" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="BC32" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="BD32" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.5625</v>
       </c>
     </row>
     <row r="33">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>UAE Arabian Gulf League</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -6535,40 +6535,40 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V33" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -6583,10 +6583,10 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -6595,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -6665,13 +6665,13 @@
         <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="BC33" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="BD33" s="3" t="n">
-        <v>45778.41666666666</v>
+        <v>45778.57291666666</v>
       </c>
     </row>
     <row r="34">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Jordan Jordanian Pro League</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6695,12 +6695,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Aqaba</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Havadar</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -6721,22 +6721,22 @@
         </is>
       </c>
       <c r="L34" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O34" t="n">
         <v>2.75</v>
       </c>
-      <c r="M34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>3.75</v>
+        <v>1.87</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.22</v>
+        <v>1.87</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -6851,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BC34" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BD34" s="3" t="n">
-        <v>45778.53125</v>
+        <v>45778.57291666666</v>
       </c>
     </row>
     <row r="35">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6881,12 +6881,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -6907,76 +6907,76 @@
         </is>
       </c>
       <c r="L35" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M35" t="n">
         <v>2.91</v>
       </c>
-      <c r="M35" t="n">
-        <v>3.2</v>
-      </c>
       <c r="N35" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="O35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="T35" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="U35" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
@@ -6989,46 +6989,46 @@
         </is>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AO35" t="n">
         <v>-1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ35" t="n">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BC35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="BD35" s="3" t="n">
-        <v>45778.51041666666</v>
+        <v>45778.58333333334</v>
       </c>
     </row>
     <row r="36">
@@ -7052,12 +7052,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -7093,64 +7093,64 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="M36" t="n">
-        <v>5.8</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="U36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
         <v>1.67</v>
       </c>
-      <c r="V36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AC36" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
         <v>1.8</v>
@@ -7159,10 +7159,10 @@
         <v>1.95</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
@@ -7175,46 +7175,46 @@
         </is>
       </c>
       <c r="AL36" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
         <v>-1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AX36" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AY36" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ36" t="n">
         <v>0</v>
@@ -7223,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="BC36" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="BD36" s="3" t="n">
-        <v>45778.45833333334</v>
+        <v>45778.60416666666</v>
       </c>
     </row>
     <row r="37">
@@ -7238,12 +7238,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7253,12 +7253,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -7279,40 +7279,40 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.59</v>
+        <v>3.04</v>
       </c>
       <c r="M37" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V37" t="n">
         <v>4.33</v>
       </c>
-      <c r="N37" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>6.5</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -7327,22 +7327,22 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AE37" t="n">
         <v>1.67</v>
       </c>
-      <c r="AC37" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
       <c r="AF37" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AG37" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -7409,13 +7409,13 @@
         <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="BC37" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="BD37" s="3" t="n">
-        <v>45778.60416666666</v>
+        <v>45778.625</v>
       </c>
     </row>
     <row r="38">
@@ -7424,12 +7424,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hebar 1918</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Levski Krumovgrad</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -7465,76 +7465,76 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="M38" t="n">
-        <v>2.97</v>
+        <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2.73</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="R38" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>3.22</v>
+        <v>2.63</v>
       </c>
       <c r="U38" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="V38" t="n">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="X38" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE38" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA38" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AF38" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
@@ -7547,46 +7547,46 @@
         </is>
       </c>
       <c r="AL38" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AO38" t="n">
         <v>-1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.72</v>
+        <v>1.26</v>
       </c>
       <c r="AR38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AW38" t="n">
         <v>2.5</v>
       </c>
-      <c r="AS38" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AX38" t="n">
-        <v>1.31</v>
+        <v>1.88</v>
       </c>
       <c r="AY38" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="AZ38" t="n">
         <v>0</v>
@@ -7595,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="BC38" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="BD38" s="3" t="n">
-        <v>45778.5625</v>
+        <v>45778.64583333334</v>
       </c>
     </row>
     <row r="39">
@@ -7610,12 +7610,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>UAE Arabian Gulf League</t>
+          <t>Morocco Botola Pro</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7625,12 +7625,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>RSB Berkane</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Difaâ El Jadida</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -7651,95 +7651,95 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.87</v>
       </c>
       <c r="M39" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V39" t="n">
+        <v>10</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AL39" t="n">
         <v>1.3</v>
       </c>
-      <c r="S39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO39" t="n">
         <v>-1</v>
@@ -7781,13 +7781,13 @@
         <v>0</v>
       </c>
       <c r="BB39" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="BC39" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="BD39" s="3" t="n">
-        <v>45778.57291666666</v>
+        <v>45778.66666666666</v>
       </c>
     </row>
     <row r="40">
@@ -7796,27 +7796,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>USA USL Championship</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Lexington</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -7837,76 +7837,76 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S40" t="n">
         <v>3.5</v>
       </c>
-      <c r="N40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="T40" t="n">
         <v>2.3</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U40" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V40" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="X40" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>12.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="AE40" t="n">
         <v>1.38</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="AH40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
@@ -7919,46 +7919,46 @@
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="AO40" t="n">
         <v>-1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.8</v>
+        <v>2.23</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="AU40" t="n">
-        <v>5.25</v>
+        <v>3.42</v>
       </c>
       <c r="AV40" t="n">
-        <v>3.5</v>
+        <v>2.51</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="AX40" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AY40" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AZ40" t="n">
         <v>0</v>
@@ -7967,13 +7967,13 @@
         <v>0</v>
       </c>
       <c r="BB40" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="BC40" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="BD40" s="3" t="n">
-        <v>45778.64583333334</v>
+        <v>45778.875</v>
       </c>
     </row>
   </sheetData>

--- a/jogos_2025-05-01.xlsx
+++ b/jogos_2025-05-01.xlsx
@@ -752,20 +752,20 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -842,12 +842,12 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '23', '48']</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90', '90+7']</t>
         </is>
       </c>
       <c r="AL2" t="n">
@@ -860,7 +860,7 @@
         <v>1.68</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>1.24</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -1003,16 +1003,16 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AF3" t="n">
         <v>2.65</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60', '88']</t>
         </is>
       </c>
       <c r="AL3" t="n">
@@ -1046,37 +1046,37 @@
         <v>1.01</v>
       </c>
       <c r="AO3" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1124,20 +1124,20 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
+          <t>['25', '41']</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1310,20 +1310,20 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1418,7 +1418,7 @@
         <v>1.36</v>
       </c>
       <c r="AO5" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>1.1</v>
@@ -1487,130 +1487,130 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="M6" t="n">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="N6" t="n">
-        <v>3.39</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.57</v>
       </c>
-      <c r="P6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.44</v>
-      </c>
       <c r="V6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.15</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '24', '45+2', '64']</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '47']</t>
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="AO6" t="n">
         <v>-1</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AR6" t="n">
         <v>1.7</v>
@@ -1619,13 +1619,13 @@
         <v>2.05</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AW6" t="n">
         <v>2.05</v>
@@ -1634,19 +1634,19 @@
         <v>1.7</v>
       </c>
       <c r="AY6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
         <v>1.44</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BC6" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BD6" s="3" t="n">
         <v>45778.33333333334</v>
@@ -1673,19 +1673,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zhejiang FC</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1695,108 +1695,108 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="M7" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.39</v>
       </c>
       <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.44</v>
       </c>
-      <c r="P7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V7" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.75</v>
+        <v>3.65</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5.15</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63', '89']</t>
         </is>
       </c>
       <c r="AL7" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="AO7" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR7" t="n">
         <v>1.7</v>
@@ -1805,13 +1805,13 @@
         <v>2.05</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AW7" t="n">
         <v>2.05</v>
@@ -1820,7 +1820,7 @@
         <v>1.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BD7" s="3" t="n">
         <v>45778.33333333334</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55', '69', '86']</t>
         </is>
       </c>
       <c r="AL8" t="n">
@@ -1976,7 +1976,7 @@
         <v>1.44</v>
       </c>
       <c r="AO8" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>1.24</v>
@@ -2054,20 +2054,20 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42', '55']</t>
         </is>
       </c>
       <c r="AL9" t="n">
@@ -2162,7 +2162,7 @@
         <v>1.67</v>
       </c>
       <c r="AO9" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>1.2</v>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="AL10" t="n">
@@ -2348,7 +2348,7 @@
         <v>3.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>1.16</v>
@@ -2426,20 +2426,20 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -2455,28 +2455,28 @@
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AB11" t="n">
         <v>1.6</v>
@@ -2503,68 +2503,68 @@
         <v>1.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
+          <t>['22', '51', '66', '90+2']</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AO11" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2815,22 +2815,22 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.18</v>
+        <v>1.88</v>
       </c>
       <c r="M13" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="N13" t="n">
-        <v>2.39</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.44</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -2945,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="BD13" s="3" t="n">
         <v>45778.41666666666</v>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>2.65</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.19</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
@@ -3217,10 +3217,10 @@
         <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BD15" s="3" t="n">
         <v>45778.41666666666</v>
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="M16" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="N16" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="O16" t="n">
         <v>2.3</v>
@@ -3391,16 +3391,16 @@
         <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -3533,12 +3533,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -3559,34 +3559,34 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.88</v>
+        <v>3.13</v>
       </c>
       <c r="M17" t="n">
-        <v>3.57</v>
+        <v>3.29</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>2.43</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.75</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.63</v>
-      </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -3619,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG17" t="n">
         <v>1.95</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.8</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -3689,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="BD17" s="3" t="n">
         <v>45778.41666666666</v>
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -3745,22 +3745,22 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.65</v>
+        <v>1.67</v>
       </c>
       <c r="M18" t="n">
-        <v>3.19</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R18" t="n">
         <v>1.36</v>
@@ -3775,10 +3775,10 @@
         <v>1.4</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="BD18" s="3" t="n">
         <v>45778.41666666666</v>
@@ -3949,28 +3949,28 @@
         <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="U19" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="X19" t="n">
         <v>1.06</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>1.4</v>
@@ -3979,28 +3979,28 @@
         <v>2.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="AD19" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -4013,46 +4013,46 @@
         </is>
       </c>
       <c r="AL19" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AM19" t="n">
         <v>1.33</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AO19" t="n">
         <v>-1</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AZ19" t="n">
         <v>0</v>
@@ -4165,10 +4165,10 @@
         <v>5.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="AD20" t="n">
         <v>1.95</v>
@@ -4303,76 +4303,76 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O21" t="n">
         <v>2.38</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AO21" t="n">
         <v>-1</v>
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chadormalu SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -4861,58 +4861,58 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AB24" t="n">
         <v>2.55</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AC24" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -5021,12 +5021,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Chadormalu SC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -5047,13 +5047,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N25" t="n">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5393,12 +5393,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kheybar Khorramabad</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -5419,76 +5419,76 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="M27" t="n">
-        <v>2.4</v>
+        <v>3.59</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.83</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X27" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.45</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.21</v>
+        <v>1.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.3</v>
+        <v>1.88</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AH27" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
@@ -5501,13 +5501,13 @@
         </is>
       </c>
       <c r="AL27" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
         <v>-1</v>
@@ -5549,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="BC27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="BD27" s="3" t="n">
         <v>45778.54166666666</v>
@@ -5569,22 +5569,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Kheybar Khorramabad</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -5605,77 +5605,77 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.24</v>
+        <v>2.5</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>15.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>2.11</v>
       </c>
       <c r="T28" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="X28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI28" t="n">
         <v>1.01</v>
       </c>
-      <c r="Y28" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AJ28" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5687,46 +5687,46 @@
         </is>
       </c>
       <c r="AL28" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.75</v>
+        <v>1.46</v>
       </c>
       <c r="AO28" t="n">
         <v>-1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0</v>
@@ -5735,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="BD28" s="3" t="n">
         <v>45778.54166666666</v>
@@ -5755,22 +5755,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -5791,76 +5791,76 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="n">
-        <v>3.59</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
-        <v>3.83</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.88</v>
+        <v>2.57</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF29" t="n">
         <v>1.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
@@ -5873,46 +5873,46 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
         <v>-1</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AU29" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AZ29" t="n">
         <v>0</v>
@@ -5921,10 +5921,10 @@
         <v>0</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="BC29" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="BD29" s="3" t="n">
         <v>45778.54166666666</v>
@@ -6127,22 +6127,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Faroe Islands Faroe Islands Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024/2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KÍ</t>
+          <t>Hebar 1918</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>Levski Krumovgrad</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6163,128 +6163,128 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.03</v>
+        <v>2.73</v>
       </c>
       <c r="M31" t="n">
-        <v>14</v>
+        <v>2.97</v>
       </c>
       <c r="N31" t="n">
-        <v>61</v>
+        <v>2.73</v>
       </c>
       <c r="O31" t="n">
-        <v>1.07</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>9</v>
+        <v>1.91</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="V31" t="n">
-        <v>3.8</v>
+        <v>8.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="X31" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y31" t="n">
-        <v>19</v>
+        <v>6.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.94</v>
+        <v>1.55</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM31" t="n">
         <v>1.32</v>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
       <c r="AN31" t="n">
-        <v>8.1</v>
+        <v>1.53</v>
       </c>
       <c r="AO31" t="n">
         <v>-1</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AX31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AZ31" t="n">
         <v>0</v>
@@ -6293,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.07</v>
+        <v>2.25</v>
       </c>
       <c r="BC31" t="n">
-        <v>9</v>
+        <v>1.91</v>
       </c>
       <c r="BD31" s="3" t="n">
         <v>45778.5625</v>
@@ -6313,22 +6313,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Faroe Islands Faroe Islands Premier League</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024/2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hebar 1918</t>
+          <t>KÍ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Levski Krumovgrad</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6349,128 +6349,128 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.73</v>
+        <v>1.03</v>
       </c>
       <c r="M32" t="n">
-        <v>2.97</v>
+        <v>14</v>
       </c>
       <c r="N32" t="n">
-        <v>2.73</v>
+        <v>61</v>
       </c>
       <c r="O32" t="n">
-        <v>2.25</v>
+        <v>1.07</v>
       </c>
       <c r="P32" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.91</v>
+        <v>9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="T32" t="n">
-        <v>3.22</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="V32" t="n">
-        <v>8.6</v>
+        <v>4.33</v>
       </c>
       <c r="W32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AL32" t="n">
         <v>1.04</v>
       </c>
-      <c r="X32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AM32" t="n">
-        <v>1.32</v>
+        <v>1.04</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.65</v>
+        <v>8.5</v>
       </c>
       <c r="AO32" t="n">
         <v>-1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
         <v>0</v>
@@ -6479,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="BB32" t="n">
-        <v>2.25</v>
+        <v>1.07</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.91</v>
+        <v>9</v>
       </c>
       <c r="BD32" s="3" t="n">
         <v>45778.5625</v>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UAE Arabian Gulf League</t>
+          <t>Jordan Jordanian Pro League</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Aqaba</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -6535,95 +6535,95 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>4.2</v>
       </c>
       <c r="M33" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>1.83</v>
       </c>
       <c r="O33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM33" t="n">
         <v>1.25</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AO33" t="n">
         <v>-1</v>
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="BC33" t="n">
-        <v>4</v>
+        <v>1.53</v>
       </c>
       <c r="BD33" s="3" t="n">
         <v>45778.57291666666</v>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jordan Jordanian Pro League</t>
+          <t>UAE Arabian Gulf League</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6695,12 +6695,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aqaba</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -6721,40 +6721,40 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.12</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>3.34</v>
+        <v>5.25</v>
       </c>
       <c r="N34" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -6781,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -6803,13 +6803,13 @@
         </is>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AO34" t="n">
         <v>-1</v>
@@ -6818,13 +6818,13 @@
         <v>0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -6833,13 +6833,13 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY34" t="n">
         <v>0</v>
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="BD34" s="3" t="n">
         <v>45778.57291666666</v>
@@ -6925,34 +6925,34 @@
         <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="S35" t="n">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="T35" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="U35" t="n">
         <v>1.29</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="W35" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="X35" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AB35" t="n">
         <v>2.3</v>
@@ -6961,22 +6961,22 @@
         <v>1.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>4.75</v>
+        <v>6.34</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF35" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI35" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
@@ -6989,46 +6989,46 @@
         </is>
       </c>
       <c r="AL35" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AM35" t="n">
         <v>1.35</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AO35" t="n">
         <v>-1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AS35" t="n">
         <v>2.49</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="AU35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AV35" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="AW35" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AX35" t="n">
         <v>1.51</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AZ35" t="n">
         <v>0</v>
@@ -7669,34 +7669,34 @@
         <v>3.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="T39" t="n">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="U39" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X39" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB39" t="n">
         <v>2.15</v>
@@ -7705,22 +7705,22 @@
         <v>1.57</v>
       </c>
       <c r="AD39" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AH39" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
@@ -7733,13 +7733,13 @@
         </is>
       </c>
       <c r="AL39" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM39" t="n">
         <v>1.28</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AO39" t="n">
         <v>-1</v>
@@ -7837,13 +7837,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M40" t="n">
-        <v>5.34</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -7855,10 +7855,10 @@
         <v>4.33</v>
       </c>
       <c r="R40" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
         <v>2.3</v>
@@ -7870,43 +7870,43 @@
         <v>5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X40" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AA40" t="n">
         <v>4.33</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.62</v>
+        <v>2.49</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AH40" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
@@ -7919,46 +7919,46 @@
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AO40" t="n">
         <v>-1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.43</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AU40" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AV40" t="n">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="AW40" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="AX40" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AY40" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AZ40" t="n">
         <v>0</v>
